--- a/casual1/Assets/Resources/GimmickDB.xlsx
+++ b/casual1/Assets/Resources/GimmickDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,59 +68,99 @@
     <t>해당 영역을 통과해서 히트 시, 데미지가 N배</t>
   </si>
   <si>
+    <t>StarBomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldBasic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방패(1차 구현 완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적 방패(1차 구현 완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서(구현 전)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고리(구현 전)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히트시 타겟 회복(1차 구현 완) - value1(회복량)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletSingle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지N (1차 구현 완) - value1(데미지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprite2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprite3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Checked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LockOpened</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PotionEmpty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PotionFull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PotionHalf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AimStar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Heart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StarBomb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShieldBasic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Help</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방패(1차 구현 완)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무적 방패(1차 구현 완)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순서(구현 전)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고리(구현 전)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>히트시 타겟 회복(1차 구현 완) - value1(회복량)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletSingle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데미지N (1차 구현 완) - value1(데미지)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -475,9 +515,10 @@
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="10.625" customWidth="1"/>
     <col min="7" max="7" width="16.75" customWidth="1"/>
+    <col min="8" max="9" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,18 +538,24 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>0.4</v>
@@ -523,15 +570,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10200</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>0.4</v>
@@ -546,15 +593,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10300</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>0.4</v>
@@ -568,16 +615,19 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10400</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>0.4</v>
@@ -592,15 +642,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10500</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>0.4</v>
@@ -615,7 +665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10600</v>
       </c>
@@ -623,7 +673,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>0.4</v>
@@ -637,8 +687,14 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10700</v>
       </c>
@@ -646,7 +702,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D8">
         <v>0.4</v>
@@ -661,15 +717,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10800</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>0.4</v>
@@ -684,7 +740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10900</v>
       </c>
@@ -692,7 +748,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>0.4</v>
@@ -706,8 +762,11 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>20100</v>
       </c>
@@ -715,7 +774,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>0.4</v>
@@ -730,7 +789,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20200</v>
       </c>
@@ -738,7 +797,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <v>0.4</v>
@@ -753,7 +812,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20300</v>
       </c>
@@ -761,7 +820,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13">
         <v>0.4</v>
@@ -776,7 +835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>30100</v>
       </c>

--- a/casual1/Assets/Resources/GimmickDB.xlsx
+++ b/casual1/Assets/Resources/GimmickDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>순서(구현 전)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>고리(구현 전)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,10 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PotionHalf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AimStar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,6 +153,10 @@
   </si>
   <si>
     <t>Heart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서(1차 구현 완)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,7 +502,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -538,13 +534,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
         <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -597,11 +593,11 @@
       <c r="A4">
         <v>10300</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>0.4</v>
@@ -616,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -624,10 +620,10 @@
         <v>10400</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>0.4</v>
@@ -647,10 +643,10 @@
         <v>10500</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>0.4</v>
@@ -673,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>0.4</v>
@@ -688,10 +684,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -702,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>0.4</v>
@@ -722,7 +715,7 @@
         <v>10800</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -748,7 +741,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>0.4</v>
@@ -763,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -820,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>0.4</v>

--- a/casual1/Assets/Resources/GimmickDB.xlsx
+++ b/casual1/Assets/Resources/GimmickDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,29 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연속 히트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타겟에 붙은 모든 발사체 소거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>턴마다 제거 가능 여부가 바뀜</t>
-  </si>
-  <si>
-    <t>히트 시 회전속도 증가</t>
-  </si>
-  <si>
-    <t>히트 시 회전속도 감소</t>
-  </si>
-  <si>
-    <t>히트 시 발사체 수량 N 증가</t>
-  </si>
-  <si>
-    <t>해당 영역을 통과해서 히트 시, 데미지가 N배</t>
-  </si>
-  <si>
     <t>StarBomb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고리(구현 전)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>value1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,19 +117,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Protect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서(1차 구현 완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고리(1차 구현 완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속 히트(1차 구현 완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟에 붙은 모든 발사체 소거(1차 구현 완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히트 시 회전속도 감소(1차 구현 완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히트 시 발사체 수량 N 증가(1차 구현 완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 영역을 통과해서 히트 시, 데미지가 N배(1차 구현 완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히트 시 회전속도 증가(1차 구현 완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턴마다 제거 가능 여부가 바뀜 히트 가능 시작(1차 구현 완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턴마다 제거 가능 여부가 바뀜 히트 불가 시작(1차 구현 완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AimStar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Protect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순서(1차 구현 완)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -534,13 +543,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -548,10 +557,10 @@
         <v>10100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>0.4</v>
@@ -571,10 +580,10 @@
         <v>10200</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>0.4</v>
@@ -594,10 +603,10 @@
         <v>10300</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>0.4</v>
@@ -612,18 +621,18 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10400</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>0.4</v>
@@ -643,10 +652,10 @@
         <v>10500</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>0.4</v>
@@ -665,11 +674,11 @@
       <c r="A7">
         <v>10600</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>0.4</v>
@@ -684,18 +693,18 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10700</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>0.4</v>
@@ -714,11 +723,11 @@
       <c r="A9">
         <v>10800</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>0.4</v>
@@ -737,11 +746,11 @@
       <c r="A10">
         <v>10900</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>0.4</v>
@@ -756,18 +765,18 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>20100</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
+        <v>11000</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>0.4</v>
@@ -779,18 +788,21 @@
         <v>0.5</v>
       </c>
       <c r="G11">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>20200</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
+        <v>20100</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>0.4</v>
@@ -807,13 +819,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>20300</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
+        <v>20200</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <v>0.4</v>
@@ -825,26 +837,49 @@
         <v>0.5</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
+        <v>20300</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>0.4</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>30100</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>0.4</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14">
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>0.4</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
         <v>2</v>
       </c>
     </row>

--- a/casual1/Assets/Resources/GimmickDB.xlsx
+++ b/casual1/Assets/Resources/GimmickDB.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCB0439-CAC2-41F8-BEB9-77FA2B8E76F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gimmicks" sheetId="1" r:id="rId1"/>
@@ -172,7 +173,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -507,11 +508,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -566,10 +567,10 @@
         <v>0.4</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -589,10 +590,10 @@
         <v>0.4</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -612,10 +613,10 @@
         <v>0.4</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -638,10 +639,10 @@
         <v>0.4</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -661,10 +662,10 @@
         <v>0.4</v>
       </c>
       <c r="E6">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -684,10 +685,10 @@
         <v>0.4</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -710,10 +711,10 @@
         <v>0.4</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -733,10 +734,10 @@
         <v>0.4</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -756,10 +757,10 @@
         <v>0.4</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -782,10 +783,10 @@
         <v>0.4</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -808,13 +809,13 @@
         <v>0.4</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G12">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -831,13 +832,13 @@
         <v>0.4</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G13">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -854,13 +855,13 @@
         <v>0.4</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -874,10 +875,10 @@
         <v>0.4</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G15">
         <v>2</v>

--- a/casual1/Assets/Resources/GimmickDB.xlsx
+++ b/casual1/Assets/Resources/GimmickDB.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCB0439-CAC2-41F8-BEB9-77FA2B8E76F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="gimmicks" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>StarBomb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Shield</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,122 +53,130 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>방패(1차 구현 완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적 방패(1차 구현 완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히트시 타겟 회복(1차 구현 완) - value1(회복량)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletSingle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지N (1차 구현 완) - value1(데미지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprite2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprite3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Checked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LockOpened</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PotionEmpty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PotionFull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서(1차 구현 완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고리(1차 구현 완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속 히트(1차 구현 완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟에 붙은 모든 발사체 소거(1차 구현 완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히트 시 회전속도 감소(1차 구현 완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히트 시 발사체 수량 N 증가(1차 구현 완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 영역을 통과해서 히트 시, 데미지가 N배(1차 구현 완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히트 시 회전속도 증가(1차 구현 완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턴마다 제거 가능 여부가 바뀜 히트 가능 시작(1차 구현 완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턴마다 제거 가능 여부가 바뀜 히트 불가 시작(1차 구현 완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AimStar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Reload</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방패(1차 구현 완)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무적 방패(1차 구현 완)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>히트시 타겟 회복(1차 구현 완) - value1(회복량)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletSingle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데미지N (1차 구현 완) - value1(데미지)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sprite2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sprite3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Warning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Checked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LockOpened</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PotionEmpty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PotionFull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Protect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순서(1차 구현 완)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고리(1차 구현 완)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연속 히트(1차 구현 완)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타겟에 붙은 모든 발사체 소거(1차 구현 완)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>히트 시 회전속도 감소(1차 구현 완)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>히트 시 발사체 수량 N 증가(1차 구현 완)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 영역을 통과해서 히트 시, 데미지가 N배(1차 구현 완)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>히트 시 회전속도 증가(1차 구현 완)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>턴마다 제거 가능 여부가 바뀜 히트 가능 시작(1차 구현 완)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>턴마다 제거 가능 여부가 바뀜 히트 불가 시작(1차 구현 완)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AimStar</t>
+    <t>Undo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -508,11 +511,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -544,13 +547,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -558,10 +561,10 @@
         <v>10100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>0.4</v>
@@ -581,10 +584,10 @@
         <v>10200</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>0.4</v>
@@ -604,10 +607,10 @@
         <v>10300</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>0.4</v>
@@ -622,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -630,10 +633,10 @@
         <v>10400</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>0.4</v>
@@ -653,10 +656,10 @@
         <v>10500</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>0.4</v>
@@ -676,10 +679,10 @@
         <v>10600</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>0.4</v>
@@ -694,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -702,10 +705,10 @@
         <v>10700</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8">
         <v>0.4</v>
@@ -725,10 +728,10 @@
         <v>10800</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>0.4</v>
@@ -748,10 +751,10 @@
         <v>10900</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>0.4</v>
@@ -766,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -774,10 +777,10 @@
         <v>11000</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>0.4</v>
@@ -792,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -800,10 +803,10 @@
         <v>20100</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D12">
         <v>0.4</v>
@@ -823,10 +826,10 @@
         <v>20200</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>0.4</v>
@@ -846,10 +849,10 @@
         <v>20300</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>0.4</v>
@@ -869,7 +872,7 @@
         <v>30100</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>0.4</v>

--- a/casual1/Assets/Resources/GimmickDB.xlsx
+++ b/casual1/Assets/Resources/GimmickDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,10 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>해당 영역을 통과해서 히트 시, 데미지가 N배(1차 구현 완)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>히트 시 회전속도 증가(1차 구현 완)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,6 +166,86 @@
   </si>
   <si>
     <t>Undo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 영역을 통과해서 히트 시, 데미지없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 영역을 통과해서 히트 시, 데미지 추가1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnOff(ON)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnOff(Off)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddShot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage Area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Damage Area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chain Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target Heart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gimmick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>textinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>textinfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -177,7 +253,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +283,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -228,10 +312,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -512,22 +598,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="56.625" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
-    <col min="7" max="7" width="16.75" customWidth="1"/>
-    <col min="8" max="9" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="9" max="10" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,28 +622,37 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10100</v>
       </c>
@@ -566,325 +662,411 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>0.4</v>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F2">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G2">
+        <v>0.4</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10200</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>0.4</v>
-      </c>
       <c r="E3">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F3">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G3">
+        <v>0.4</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10300</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="D4">
-        <v>0.4</v>
-      </c>
       <c r="E4">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F4">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G4">
+        <v>0.4</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10400</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5">
-        <v>0.4</v>
-      </c>
       <c r="E5">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F5">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G5">
+        <v>0.4</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10500</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6">
-        <v>0.4</v>
-      </c>
       <c r="E6">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F6">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G6">
+        <v>0.4</v>
+      </c>
+      <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10600</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="D7">
-        <v>0.4</v>
-      </c>
       <c r="E7">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F7">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G7">
+        <v>0.4</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10700</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8">
-        <v>0.4</v>
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
       </c>
       <c r="E8">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F8">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G8">
+        <v>0.4</v>
+      </c>
+      <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10800</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9">
-        <v>0.4</v>
+      <c r="C9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
       </c>
       <c r="E9">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F9">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G9">
+        <v>0.4</v>
+      </c>
+      <c r="H9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10900</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="D10">
-        <v>0.4</v>
-      </c>
       <c r="E10">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F10">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G10">
+        <v>0.4</v>
+      </c>
+      <c r="H10">
         <v>0</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11000</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="D11">
-        <v>0.4</v>
-      </c>
       <c r="E11">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F11">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G11">
+        <v>0.4</v>
+      </c>
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20100</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12">
-        <v>0.4</v>
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
       </c>
       <c r="E12">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F12">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G12">
+        <v>0.4</v>
+      </c>
+      <c r="H12">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20200</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13">
-        <v>0.4</v>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
       </c>
       <c r="E13">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F13">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G13">
+        <v>0.4</v>
+      </c>
+      <c r="H13">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>20300</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="D14">
-        <v>0.4</v>
-      </c>
       <c r="E14">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F14">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G14">
+        <v>0.4</v>
+      </c>
+      <c r="H14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>30100</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15">
-        <v>0.4</v>
-      </c>
-      <c r="E15">
-        <v>0.8</v>
-      </c>
-      <c r="F15">
-        <v>0.4</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>30200</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/casual1/Assets/Resources/GimmickDB.xlsx
+++ b/casual1/Assets/Resources/GimmickDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,7 +245,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>textinfo</t>
+    <t>Can be removed when striking in the order of activation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unable to remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Removable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recovery of target HP in the event of a strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove all notes attached to the target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove status change per turn
+Starting Unremovable Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove status change per turn
+Start Removable Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove from gimmick consecutive strikes
+If you don't strike back to back, you're in a state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No damage in case of local strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add damage 1 in case of local strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earn a note
+Target strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reduce target rotational speed
+Target strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase target rotational speed
+Target strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply Damage 2 to Target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grant target invincible status
+All Gimmick Strike Required for removal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -312,12 +375,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -601,7 +667,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -612,6 +678,7 @@
     <col min="7" max="7" width="10.625" customWidth="1"/>
     <col min="8" max="8" width="16.75" customWidth="1"/>
     <col min="9" max="10" width="11.875" customWidth="1"/>
+    <col min="12" max="12" width="50.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -677,8 +744,8 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
-        <v>56</v>
+      <c r="L2" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -706,8 +773,8 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="L3" t="s">
-        <v>56</v>
+      <c r="L3" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -738,11 +805,11 @@
       <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10400</v>
       </c>
@@ -767,8 +834,8 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="L5" t="s">
-        <v>56</v>
+      <c r="L5" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -797,10 +864,10 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10600</v>
       </c>
@@ -828,8 +895,8 @@
       <c r="I7" t="s">
         <v>21</v>
       </c>
-      <c r="L7" t="s">
-        <v>56</v>
+      <c r="L7" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -858,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -887,10 +954,10 @@
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10900</v>
       </c>
@@ -918,11 +985,11 @@
       <c r="I10" t="s">
         <v>19</v>
       </c>
-      <c r="L10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L10" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11000</v>
       </c>
@@ -950,11 +1017,11 @@
       <c r="I11" t="s">
         <v>19</v>
       </c>
-      <c r="L11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L11" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20100</v>
       </c>
@@ -979,11 +1046,11 @@
       <c r="H12">
         <v>30</v>
       </c>
-      <c r="L12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L12" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20200</v>
       </c>
@@ -1008,11 +1075,11 @@
       <c r="H13">
         <v>30</v>
       </c>
-      <c r="L13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>20300</v>
       </c>
@@ -1037,8 +1104,8 @@
       <c r="H14">
         <v>2</v>
       </c>
-      <c r="L14" t="s">
-        <v>56</v>
+      <c r="L14" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1052,7 +1119,7 @@
         <v>49</v>
       </c>
       <c r="L15" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1066,7 +1133,7 @@
         <v>50</v>
       </c>
       <c r="L16" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/casual1/Assets/Resources/GimmickDB.xlsx
+++ b/casual1/Assets/Resources/GimmickDB.xlsx
@@ -667,7 +667,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -986,7 +986,7 @@
         <v>19</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1018,7 +1018,7 @@
         <v>19</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="33" x14ac:dyDescent="0.3">

--- a/casual1/Assets/Resources/GimmickDB.xlsx
+++ b/casual1/Assets/Resources/GimmickDB.xlsx
@@ -197,26 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OnOff(ON)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnOff(Off)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpeedUp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpeedDown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddShot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Damage Area</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,6 +289,26 @@
   <si>
     <t>Grant target invincible status
 All Gimmick Strike Required for removal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Off(ON)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Off(Off)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shot Up</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +667,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -689,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -716,7 +716,7 @@
         <v>39</v>
       </c>
       <c r="L1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -756,7 +756,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -806,7 +806,7 @@
         <v>17</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -817,7 +817,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -846,7 +846,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -864,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -896,7 +896,7 @@
         <v>21</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -954,7 +954,7 @@
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -965,7 +965,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -986,7 +986,7 @@
         <v>19</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -997,7 +997,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -1018,7 +1018,7 @@
         <v>19</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1029,7 +1029,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -1047,7 +1047,7 @@
         <v>30</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1058,7 +1058,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
@@ -1076,7 +1076,7 @@
         <v>30</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1087,7 +1087,7 @@
         <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -1105,7 +1105,7 @@
         <v>2</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1116,10 +1116,10 @@
         <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1130,10 +1130,10 @@
         <v>37</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/casual1/Assets/Resources/GimmickDB.xlsx
+++ b/casual1/Assets/Resources/GimmickDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="71">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BulletSingle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데미지N (1차 구현 완) - value1(데미지)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Heart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>순서(1차 구현 완)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,10 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Target Heart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gimmick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,14 +222,6 @@
   </si>
   <si>
     <t>Removable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recovery of target HP in the event of a strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remove all notes attached to the target</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -268,47 +248,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Earn a note
-Target strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reduce target rotational speed
-Target strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase target rotational speed
-Target strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apply Damage 2 to Target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grant target invincible status
+    <t>On Off(ON)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Off(Off)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joy Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grant Worry invincible status
 All Gimmick Strike Required for removal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>On Off(ON)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>On Off(Off)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speed Up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speed Down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shot Up</t>
+    <t>Recovery of Worry HP in the event of a strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply Damage 2 to Worry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earn a Joy
+Worry strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worry HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase Worry rotational speed
+Worry strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reduce Worry rotational speed
+Worry strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Joy attached to the Worry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmileBaseWhite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorryBaseWhite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +667,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -689,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -707,16 +707,16 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -756,7 +756,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -782,13 +782,13 @@
         <v>10300</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0.4</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -814,13 +814,13 @@
         <v>10400</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0.4</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -846,13 +846,13 @@
         <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="E6">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F6">
         <v>0.8</v>
@@ -864,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -872,13 +872,13 @@
         <v>10600</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0.4</v>
@@ -893,10 +893,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -904,13 +904,13 @@
         <v>10700</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0.4</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -933,13 +933,13 @@
         <v>10800</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>0.4</v>
@@ -954,7 +954,7 @@
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -962,13 +962,13 @@
         <v>10900</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0.4</v>
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -994,13 +994,13 @@
         <v>11000</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0.4</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1026,13 +1026,13 @@
         <v>20100</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>0.4</v>
@@ -1047,7 +1047,7 @@
         <v>30</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1055,13 +1055,13 @@
         <v>20200</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0.4</v>
@@ -1076,7 +1076,7 @@
         <v>30</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1084,16 +1084,16 @@
         <v>20300</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="E14">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F14">
         <v>0.8</v>
@@ -1105,7 +1105,7 @@
         <v>2</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1113,13 +1113,13 @@
         <v>30100</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1127,13 +1127,13 @@
         <v>30200</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
